--- a/Environment.xlsx
+++ b/Environment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.marlon\Desktop\Automation\CRM\Test Data\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2EC95A-50F1-4644-97AD-748F5F329E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A1374-7F1D-424C-B611-AD8405484230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment Settings" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>https://sitcrm.ascentis.com.sg/matrixCRM/login.aspx</t>
   </si>
   <si>
-    <t>https://uatcrm.ascentis.com.sg/AscentisCRM2/login.aspx</t>
-  </si>
-  <si>
     <t>https://stgcrm.ascentis.com.sg/MatrixCRM/login.aspx</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>L(3pc(bq</t>
+  </si>
+  <si>
+    <t>https://uatcrm-demo.ascentis.com.sg/AscentisCRM2/login.aspx</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1397,67 +1397,67 @@
         <v>8</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.45" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1470,7 +1470,7 @@
     <row r="9" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:6" ht="36.75" thickBot="1">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>2</v>
@@ -1517,10 +1517,10 @@
   <sheetData>
     <row r="1" spans="1:40" customFormat="1" ht="31.9" customHeight="1">
       <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="2" spans="1:40" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="3" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="4" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="25">
         <v>23193</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="5" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="6" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="25">
         <v>87925</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="7" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="25">
         <v>4</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="8" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="9" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="10" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="11" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2041,13 +2041,13 @@
     </row>
     <row r="12" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="13" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="14" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="25">
         <v>2</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="15" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="25">
         <v>38605</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="16" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A16" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="25">
         <v>264334</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="17" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A17" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="25">
         <v>3741</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="18" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="19" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2425,13 +2425,13 @@
     </row>
     <row r="20" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="21" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A21" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="25">
         <v>18054</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="22" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="23" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A23" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="26">
         <v>361505</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="24" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="5"/>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="25" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="25">
         <v>147068</v>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="26" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="27" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="25">
         <v>69068</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="28" spans="1:40" customFormat="1" collapsed="1">
       <c r="A28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2853,13 +2853,13 @@
     </row>
     <row r="29" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A29" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="30" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A30" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="31">
         <v>5773239</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="31" spans="1:40" customFormat="1" collapsed="1">
       <c r="A31" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="32" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A32" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="33" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="33">
         <v>2622</v>
@@ -3091,13 +3091,13 @@
     </row>
     <row r="34" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>72</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="35" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A35" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="5"/>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="36" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A36" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="37" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A37" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="5"/>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="38" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A38" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="33">
         <v>4150291</v>
@@ -3327,13 +3327,13 @@
     </row>
     <row r="39" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="40" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="33">
         <v>1343328</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="41" spans="1:40" customFormat="1" collapsed="1">
       <c r="A41" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="42" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3517,13 +3517,13 @@
     </row>
     <row r="43" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>84</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="44" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="45" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="37">
         <v>7</v>
@@ -3661,13 +3661,13 @@
     </row>
     <row r="46" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="47" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="37">
         <v>132</v>
@@ -3757,13 +3757,13 @@
     </row>
     <row r="48" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3805,13 +3805,13 @@
     </row>
     <row r="49" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="37" t="s">
         <v>93</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>94</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="50" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="37">
         <v>21924</v>
@@ -3901,13 +3901,13 @@
     </row>
     <row r="51" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A51" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3949,13 +3949,13 @@
     </row>
     <row r="52" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A52" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="37" t="s">
         <v>98</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>99</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3997,13 +3997,13 @@
     </row>
     <row r="53" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A53" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="37" t="s">
         <v>100</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>101</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="54" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A54" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="55" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A55" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>105</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="56" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="37">
         <v>12707</v>
@@ -4189,13 +4189,13 @@
     </row>
     <row r="57" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A57" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -4237,13 +4237,13 @@
     </row>
     <row r="58" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A58" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>109</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="59" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A59" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="37" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>112</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="60" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="37">
         <v>381065</v>
@@ -4381,13 +4381,13 @@
     </row>
     <row r="61" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A61" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="37" t="s">
         <v>114</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>115</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="62" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A62" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>117</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -4477,13 +4477,13 @@
     </row>
     <row r="63" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A63" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>119</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="64" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A64" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="5"/>
@@ -4571,10 +4571,10 @@
     </row>
     <row r="65" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="5"/>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="66" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A66" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="37">
         <v>62</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="67" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A67" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="5"/>
@@ -4711,13 +4711,13 @@
     </row>
     <row r="68" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A68" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>125</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="69" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A69" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="37" t="s">
         <v>126</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>127</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4807,13 +4807,13 @@
     </row>
     <row r="70" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A70" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>129</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="71" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A71" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="37">
         <v>3</v>
@@ -4903,13 +4903,13 @@
     </row>
     <row r="72" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A72" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>132</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="73" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A73" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="37" t="s">
         <v>133</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>134</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4999,13 +4999,13 @@
     </row>
     <row r="74" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A74" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>136</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -5047,13 +5047,13 @@
     </row>
     <row r="75" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A75" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="37" t="s">
         <v>137</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>138</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="76" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A76" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="37">
         <v>312126</v>
@@ -5143,10 +5143,10 @@
     </row>
     <row r="77" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="37">
         <v>2</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="78" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="37">
         <v>4</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="79" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="37">
         <v>35957</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="80" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A80" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C80" s="37">
         <v>48260</v>
@@ -5335,13 +5335,13 @@
     </row>
     <row r="81" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A81" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -5383,13 +5383,13 @@
     </row>
     <row r="82" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A82" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>147</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="83" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A83" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="37" t="s">
         <v>148</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>149</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="84" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A84" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="37" t="s">
         <v>150</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>151</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="85" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A85" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>152</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>153</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -5575,13 +5575,13 @@
     </row>
     <row r="86" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A86" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="37" t="s">
         <v>154</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>155</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -5623,13 +5623,13 @@
     </row>
     <row r="87" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A87" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>157</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="88" spans="1:40" customFormat="1" collapsed="1">
       <c r="A88" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -5717,13 +5717,13 @@
     </row>
     <row r="89" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A89" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="90" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="34">
         <v>75317</v>
@@ -5813,13 +5813,13 @@
     </row>
     <row r="91" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A91" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>162</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -5861,13 +5861,13 @@
     </row>
     <row r="92" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A92" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>164</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5909,13 +5909,13 @@
     </row>
     <row r="93" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A93" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>166</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5957,13 +5957,13 @@
     </row>
     <row r="94" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A94" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -6005,13 +6005,13 @@
     </row>
     <row r="95" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A95" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -6053,13 +6053,13 @@
     </row>
     <row r="96" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A96" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="33" t="s">
         <v>171</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>172</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="97" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="5"/>
@@ -6147,13 +6147,13 @@
     </row>
     <row r="98" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A98" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="33" t="s">
         <v>174</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>175</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -6195,13 +6195,13 @@
     </row>
     <row r="99" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A99" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>177</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -6243,13 +6243,13 @@
     </row>
     <row r="100" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A100" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>178</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>179</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="101" spans="1:40" customFormat="1" collapsed="1">
       <c r="A101" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -6337,13 +6337,13 @@
     </row>
     <row r="102" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A102" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -6385,13 +6385,13 @@
     </row>
     <row r="103" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A103" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="36" t="s">
         <v>182</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>183</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -6433,13 +6433,13 @@
     </row>
     <row r="104" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A104" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="36" t="s">
         <v>184</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -6481,13 +6481,13 @@
     </row>
     <row r="105" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A105" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>187</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -6529,13 +6529,13 @@
     </row>
     <row r="106" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A106" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>189</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -6577,13 +6577,13 @@
     </row>
     <row r="107" spans="1:40" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A107" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="36" t="s">
-        <v>191</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -8423,7 +8423,7 @@
       <c r="AG150" s="5"/>
       <c r="AH150" s="5"/>
       <c r="AI150" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ150" s="5"/>
       <c r="AK150" s="5"/>
@@ -8467,7 +8467,7 @@
       <c r="AG151" s="5"/>
       <c r="AH151" s="5"/>
       <c r="AI151" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ151" s="5"/>
       <c r="AK151" s="5"/>

--- a/Environment.xlsx
+++ b/Environment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.marlon\Desktop\Automation\CRM\Test Data\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB3A57-4A6D-47A1-B033-BA6D73EDC6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20768A3-94EB-4001-85DA-927148FF4B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,11 +993,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1430,10 +1430,10 @@
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="47" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1484,9 +1484,11 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{37F464A9-2FB8-4C91-8886-D9751DBB845F}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{E5154526-225F-4645-8E65-EADCEF24BA95}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{12CF3033-6C53-4C42-8CB5-664F36F66B34}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{C6D633A3-A844-45FC-948A-EFDAF3A44854}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
